--- a/lab7/Lab7.xlsx
+++ b/lab7/Lab7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\budaf\OneDrive - Politecnico di Milano\Desktop\MMPE\Lab7 - Cineca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A1CFFC-B8C4-4727-99D8-43AEC3508C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A1F2B7-A44A-489B-A3C7-126B315093CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,6 +368,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281941</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>16764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403FA6E3-2DFE-E95B-D32C-82526CA63042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8747761" y="1584960"/>
+          <a:ext cx="3429000" cy="2272284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -676,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,6 +999,7 @@
       <c r="J13" s="1">
         <v>28.544899999999998</v>
       </c>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
